--- a/Collinearity_Analysis.xlsx
+++ b/Collinearity_Analysis.xlsx
@@ -18,16 +18,17 @@
     <sheet name="Categorical" sheetId="10" r:id="rId4"/>
     <sheet name="Partial Correlation" sheetId="1" r:id="rId5"/>
     <sheet name="Collinearity" sheetId="7" r:id="rId6"/>
+    <sheet name="Stepwise" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5">Collinearity!$A$1:$L$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Collinearity!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="123">
   <si>
     <t>WaterTemp</t>
   </si>
@@ -387,6 +388,15 @@
   </si>
   <si>
     <t>* AIC and accuracy are from a logistic or mixed logistic regression with DOCode as response; pval only for quantitative predictors</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
@@ -982,7 +992,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1005,7 +1015,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1018,10 +1027,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1886,7 +1918,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1948,7 +1980,7 @@
       <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0.99999999999999101</v>
       </c>
       <c r="C5" s="2">
@@ -5254,11 +5286,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5275,10 +5307,14 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
@@ -5315,770 +5351,1030 @@
       <c r="L1" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="45"/>
+      <c r="N1" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="13">
+        <v>85.1823914106307</v>
+      </c>
+      <c r="F2" s="24">
+        <v>95.874705270015696</v>
+      </c>
+      <c r="G2" s="38">
+        <f>RANK(F2,$F$2:$F$24,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.69072164948453596</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2.9134134701614499E-5</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.57218895750795196</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.48779452470034101</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13">
+        <v>74.738803714226805</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0.12690954237049601</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0.89690721649484495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>4</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="34">
-        <v>119.21388143134401</v>
-      </c>
-      <c r="G2" s="35">
-        <f>RANK(F2,$F$2:$F$24,1)</f>
-        <v>11</v>
-      </c>
-      <c r="H2" s="36">
-        <v>0.74226804123711299</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="36">
-        <v>1.1421522601333799E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="12">
-        <v>9.4900178908660298</v>
-      </c>
-      <c r="F3" s="25">
-        <v>130.827888861036</v>
+      <c r="E3" s="13">
+        <v>42.601011417323903</v>
+      </c>
+      <c r="F3" s="24">
+        <v>123.472547127932</v>
       </c>
       <c r="G3" s="14">
-        <f t="shared" ref="G3:G24" si="0">RANK(F3,$F$2:$F$24,1)</f>
-        <v>21</v>
+        <f>RANK(F3,$F$2:$F$24,1)</f>
+        <v>14</v>
       </c>
       <c r="H3" s="16">
-        <v>0.63917525773195905</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0.86933113972321097</v>
+        <v>0.69072164948453596</v>
+      </c>
+      <c r="I3" s="17">
+        <v>9.4168807669271597E-3</v>
       </c>
       <c r="J3" s="13">
-        <v>-0.122877325089695</v>
+        <v>0.23829039512814501</v>
       </c>
       <c r="K3" s="13">
-        <v>-1.4736501116892099E-2</v>
+        <v>0.14075478002285599</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="47"/>
+      <c r="N3" s="11">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="13">
-        <v>85.1823914106307</v>
-      </c>
-      <c r="F4" s="25">
-        <v>95.874705270015696</v>
+      <c r="E4" s="12">
+        <v>7.1970983572347604</v>
+      </c>
+      <c r="F4" s="24">
+        <v>103.73247650256999</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>RANK(F4,$F$2:$F$24,1)</f>
+        <v>4</v>
       </c>
       <c r="H4" s="16">
         <v>0.69072164948453596</v>
       </c>
       <c r="I4" s="18">
-        <v>2.9134134701614499E-5</v>
+        <v>4.0142579059969099E-5</v>
       </c>
       <c r="J4" s="12">
-        <v>0.57218895750795196</v>
+        <v>0.51753211460161996</v>
       </c>
       <c r="K4" s="12">
-        <v>0.48779452470034101</v>
+        <v>0.41974791596416799</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="45"/>
+      <c r="N4" s="11">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13">
+        <v>75.285847544865007</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0.16986179851459501</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0.90721649484536104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>62</v>
+      <c r="C5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="E5" s="13">
-        <v>42.601011417323903</v>
-      </c>
-      <c r="F5" s="25">
-        <v>123.472547127932</v>
+        <v>36.501916199749502</v>
+      </c>
+      <c r="F5" s="24">
+        <v>119.484578909595</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>RANK(F5,$F$2:$F$24,1)</f>
+        <v>12</v>
       </c>
       <c r="H5" s="16">
-        <v>0.69072164948453596</v>
+        <v>0.67010309278350499</v>
       </c>
       <c r="I5" s="17">
-        <v>9.4168807669271597E-3</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0.23829039512814501</v>
+        <v>1.39971832454232E-3</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.42159781866771701</v>
       </c>
       <c r="K5" s="13">
-        <v>0.14075478002285599</v>
+        <v>0.36301003077382099</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="45"/>
+      <c r="N5" s="11">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13">
+        <v>75.806928816674699</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.23660953782833899</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0.87628865979381398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="13">
+        <v>32.042269545959002</v>
+      </c>
+      <c r="F6" s="24">
+        <v>99.712965041125898</v>
+      </c>
+      <c r="G6" s="15">
+        <f>RANK(F6,$F$2:$F$24,1)</f>
         <v>3</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="12">
-        <v>7.1970983572347604</v>
-      </c>
-      <c r="F6" s="25">
-        <v>103.73247650256999</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="H6" s="16">
         <v>0.69072164948453596</v>
       </c>
       <c r="I6" s="18">
-        <v>4.0142579059969099E-5</v>
+        <v>3.5629485097437297E-5</v>
       </c>
       <c r="J6" s="12">
-        <v>0.51753211460161996</v>
+        <v>0.59549803837418003</v>
       </c>
       <c r="K6" s="12">
-        <v>0.41974791596416799</v>
+        <v>0.52206675052672502</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="45"/>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>76.023211165277402</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.30837130645961403</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0.88659793814432997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.63675962220113</v>
+      </c>
+      <c r="F7" s="24">
+        <v>116.719022405755</v>
+      </c>
+      <c r="G7" s="15">
+        <f>RANK(F7,$F$2:$F$24,1)</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.76288659793814395</v>
+      </c>
+      <c r="I7" s="17">
+        <v>9.3425097056831601E-4</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.39453216604265501</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.35021224220047098</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12">
+        <v>71.698299238592696</v>
+      </c>
+      <c r="P7" s="17">
+        <v>3.1276931803647899E-2</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.89690721649484495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="25">
-        <v>127.103924249272</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="E8" s="13">
+        <v>241.10188821146201</v>
+      </c>
+      <c r="F8" s="24">
+        <v>113.20801724974299</v>
+      </c>
+      <c r="G8" s="15">
+        <f>RANK(F8,$F$2:$F$24,1)</f>
+        <v>7</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.69072164948453596</v>
+      </c>
+      <c r="I8" s="18">
+        <v>3.8209353210146702E-4</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.40836389860601502</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.33591565227959602</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="11">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13">
+        <v>75.6059414258918</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0.21059999668922799</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0.90721649484536104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.45418252730721</v>
+      </c>
+      <c r="F9" s="24">
+        <v>108.35777982571</v>
+      </c>
+      <c r="G9" s="15">
+        <f>RANK(F9,$F$2:$F$24,1)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.78350515463917503</v>
+      </c>
+      <c r="I9" s="18">
+        <v>7.8806676061719306E-5</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.51481366084221603</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.47311908050222001</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="11">
+        <v>2</v>
+      </c>
+      <c r="O9" s="13">
+        <v>75.285847544840195</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.82649495258240802</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0.90721649484536104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="12">
+        <v>9.0843337891790696</v>
+      </c>
+      <c r="F10" s="24">
+        <v>130.59014412732199</v>
+      </c>
+      <c r="G10" s="14">
+        <f>RANK(F10,$F$2:$F$24,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="16">
         <v>0.63917525773195905</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="17">
-        <v>7.2576479669426196E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="25">
-        <v>126.35927498516099</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0.71134020618556704</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="17">
-        <v>1.29330220055999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="13">
-        <v>36.501916199749502</v>
-      </c>
-      <c r="F9" s="25">
-        <v>119.484578909595</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0.67010309278350499</v>
-      </c>
-      <c r="I9" s="17">
-        <v>1.39971832454232E-3</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.42159781866771701</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0.36301003077382099</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="13">
-        <v>32.042269545959002</v>
-      </c>
-      <c r="F10" s="25">
-        <v>99.712965041125898</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.69072164948453596</v>
-      </c>
-      <c r="I10" s="18">
-        <v>3.5629485097437297E-5</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.59549803837418003</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0.52206675052672502</v>
+      <c r="I10" s="16">
+        <v>0.60639003486030296</v>
+      </c>
+      <c r="J10" s="13">
+        <v>-3.4474580652561197E-2</v>
+      </c>
+      <c r="K10" s="13">
+        <v>-8.2914234806601705E-2</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="45"/>
+      <c r="N10" s="11">
+        <v>2</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1.45418252730721</v>
-      </c>
-      <c r="F11" s="25">
-        <v>108.35777982571</v>
+      <c r="C11" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="13">
+        <v>11.5783300212008</v>
+      </c>
+      <c r="F11" s="24">
+        <v>109.84413774137499</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>RANK(F11,$F$2:$F$24,1)</f>
+        <v>6</v>
       </c>
       <c r="H11" s="17">
-        <v>0.78350515463917503</v>
+        <v>0.77319587628866004</v>
       </c>
       <c r="I11" s="18">
-        <v>7.8806676061719306E-5</v>
+        <v>2.7654667270254001E-4</v>
       </c>
       <c r="J11" s="12">
-        <v>0.51481366084221603</v>
+        <v>0.53545319226569799</v>
       </c>
       <c r="K11" s="12">
-        <v>0.47311908050222001</v>
+        <v>0.45011877016667001</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="45"/>
+      <c r="N11" s="11">
+        <v>2</v>
+      </c>
+      <c r="O11" s="12">
+        <v>75.065607003295895</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.60987233761527404</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.88659793814432997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="11">
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="12">
-        <v>9.0843337891790696</v>
-      </c>
-      <c r="F12" s="25">
-        <v>130.59014412732199</v>
+      <c r="E12" s="13">
+        <v>24.824617106931498</v>
+      </c>
+      <c r="F12" s="24">
+        <v>126.200200179932</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>RANK(F12,$F$2:$F$24,1)</f>
+        <v>16</v>
       </c>
       <c r="H12" s="16">
         <v>0.63917525773195905</v>
       </c>
-      <c r="I12" s="16">
-        <v>0.60639003486030296</v>
+      <c r="I12" s="17">
+        <v>4.6373169677028203E-2</v>
       </c>
       <c r="J12" s="13">
-        <v>-3.4474580652561197E-2</v>
+        <v>0.29340772916908398</v>
       </c>
       <c r="K12" s="13">
-        <v>-8.2914234806601705E-2</v>
+        <v>0.23033042862935699</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="45"/>
+      <c r="N12" s="11">
+        <v>2</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="E13" s="12">
-        <v>1.63675962220113</v>
-      </c>
-      <c r="F13" s="25">
-        <v>116.719022405755</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0.76288659793814395</v>
-      </c>
-      <c r="I13" s="17">
-        <v>9.3425097056831601E-4</v>
+        <v>9.4900178908660298</v>
+      </c>
+      <c r="F13" s="24">
+        <v>130.827888861036</v>
+      </c>
+      <c r="G13" s="14">
+        <f>RANK(F13,$F$2:$F$24,1)</f>
+        <v>21</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.63917525773195905</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.86933113972321097</v>
       </c>
       <c r="J13" s="13">
-        <v>0.39453216604265501</v>
+        <v>-0.122877325089695</v>
       </c>
       <c r="K13" s="13">
-        <v>0.35021224220047098</v>
+        <v>-1.4736501116892099E-2</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="48"/>
+      <c r="N13" s="11">
+        <v>3</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="11">
-        <v>4</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="25">
-        <v>130.854901779806</v>
+      <c r="E14" s="13">
+        <v>46.420266048754698</v>
+      </c>
+      <c r="F14" s="24">
+        <v>130.85108600800399</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>RANK(F14,$F$2:$F$24,1)</f>
+        <v>22</v>
       </c>
       <c r="H14" s="16">
         <v>0.63917525773195905</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0.57705897368709202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="16">
+        <v>0.950710393441907</v>
+      </c>
+      <c r="J14" s="13">
+        <v>-0.151276338430653</v>
+      </c>
+      <c r="K14" s="13">
+        <v>-4.4736005792623802E-2</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="45"/>
+      <c r="N14" s="11">
+        <v>3</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" s="11">
-        <v>2</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="13">
+        <v>24.9147757940734</v>
+      </c>
+      <c r="F15" s="24">
+        <v>130.27250921204899</v>
+      </c>
+      <c r="G15" s="14">
+        <f>RANK(F15,$F$2:$F$24,1)</f>
+        <v>19</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.63917525773195905</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.44503698314631102</v>
+      </c>
+      <c r="J15" s="13">
+        <v>-3.7031717990377203E-2</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1.1412576424413699E-2</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="45"/>
+      <c r="N15" s="11">
+        <v>3</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="13">
+        <v>77.323899993477099</v>
+      </c>
+      <c r="F16" s="24">
+        <v>125.903788975342</v>
+      </c>
+      <c r="G16" s="14">
+        <f>RANK(F16,$F$2:$F$24,1)</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.597938144329897</v>
+      </c>
+      <c r="I16" s="17">
+        <v>2.8208088073158E-2</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.17260518610648301</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.15340746904088401</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="45"/>
+      <c r="N16" s="11">
+        <v>3</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="13">
-        <v>11.5783300212008</v>
-      </c>
-      <c r="F15" s="25">
-        <v>109.84413774137499</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0.77319587628866004</v>
-      </c>
-      <c r="I15" s="18">
-        <v>2.7654667270254001E-4</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.53545319226569799</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0.45011877016667001</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>5</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="25">
-        <v>84.384242763733099</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0.78350515463917503</v>
-      </c>
-      <c r="I16" s="18">
-        <v>8.9076556479660704E-5</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0.42227411411835902</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0.49451759386431599</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>110</v>
-      </c>
       <c r="E17" s="13">
-        <v>241.10188821146201</v>
-      </c>
-      <c r="F17" s="25">
-        <v>113.20801724974299</v>
+        <v>146.452127363541</v>
+      </c>
+      <c r="F17" s="24">
+        <v>115.05717835122</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>RANK(F17,$F$2:$F$24,1)</f>
+        <v>9</v>
       </c>
       <c r="H17" s="16">
-        <v>0.69072164948453596</v>
+        <v>0.67010309278350499</v>
       </c>
       <c r="I17" s="18">
-        <v>3.8209353210146702E-4</v>
+        <v>4.5551879313505001E-4</v>
       </c>
       <c r="J17" s="12">
-        <v>0.40836389860601502</v>
+        <v>0.39535357684292699</v>
       </c>
       <c r="K17" s="13">
-        <v>0.33591565227959602</v>
+        <v>0.214508594690169</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="45"/>
+      <c r="N17" s="11">
+        <v>3</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="13">
-        <v>24.824617106931498</v>
-      </c>
-      <c r="F18" s="25">
-        <v>126.200200179932</v>
+        <v>389.828557877376</v>
+      </c>
+      <c r="F18" s="24">
+        <v>120.46602930405599</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>RANK(F18,$F$2:$F$24,1)</f>
+        <v>13</v>
       </c>
       <c r="H18" s="16">
-        <v>0.63917525773195905</v>
+        <v>0.62886597938144295</v>
       </c>
       <c r="I18" s="17">
-        <v>4.6373169677028203E-2</v>
+        <v>2.2555121971136699E-3</v>
       </c>
       <c r="J18" s="13">
-        <v>0.29340772916908398</v>
+        <v>-0.29250116966994699</v>
       </c>
       <c r="K18" s="13">
-        <v>0.23033042862935699</v>
+        <v>-0.187885961371552</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="45"/>
+      <c r="N18" s="11">
+        <v>3</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="32">
+        <v>4</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="33">
+        <v>119.21388143134401</v>
+      </c>
+      <c r="G19" s="14">
+        <f>RANK(F19,$F$2:$F$24,1)</f>
+        <v>11</v>
+      </c>
+      <c r="H19" s="34">
+        <v>0.74226804123711299</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="34">
+        <v>1.1421522601333799E-3</v>
+      </c>
+      <c r="M19" s="45"/>
+      <c r="N19" s="32">
+        <v>4</v>
+      </c>
+      <c r="O19" s="13">
+        <v>76.998885340496102</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0.87628865979381398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="24">
+        <v>127.103924249272</v>
+      </c>
+      <c r="G20" s="14">
+        <f>RANK(F20,$F$2:$F$24,1)</f>
         <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="13">
-        <v>46.420266048754698</v>
-      </c>
-      <c r="F19" s="25">
-        <v>130.85108600800399</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0.63917525773195905</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0.950710393441907</v>
-      </c>
-      <c r="J19" s="13">
-        <v>-0.151276338430653</v>
-      </c>
-      <c r="K19" s="13">
-        <v>-4.4736005792623802E-2</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="13">
-        <v>24.9147757940734</v>
-      </c>
-      <c r="F20" s="25">
-        <v>130.27250921204899</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="0"/>
-        <v>19</v>
       </c>
       <c r="H20" s="16">
         <v>0.63917525773195905</v>
       </c>
-      <c r="I20" s="16">
-        <v>0.44503698314631102</v>
-      </c>
-      <c r="J20" s="13">
-        <v>-3.7031717990377203E-2</v>
-      </c>
-      <c r="K20" s="13">
-        <v>1.1412576424413699E-2</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="17">
+        <v>7.2576479669426196E-3</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="N20" s="11">
+        <v>4</v>
+      </c>
+      <c r="O20" s="13">
+        <v>79.088031658261301</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0.82474226804123696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>90</v>
+      <c r="C21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="25">
-        <v>114.062523671375</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="F21" s="24">
+        <v>126.35927498516099</v>
+      </c>
+      <c r="G21" s="14">
+        <f>RANK(F21,$F$2:$F$24,1)</f>
+        <v>17</v>
       </c>
       <c r="H21" s="17">
         <v>0.71134020618556704</v>
@@ -6092,148 +6388,200 @@
       <c r="K21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="17">
+        <v>1.29330220055999E-2</v>
+      </c>
+      <c r="M21" s="45"/>
+      <c r="N21" s="11">
+        <v>4</v>
+      </c>
+      <c r="O21" s="13">
+        <v>79.498645799845605</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0.81443298969072198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="24">
+        <v>130.854901779806</v>
+      </c>
+      <c r="G22" s="14">
+        <f>RANK(F22,$F$2:$F$24,1)</f>
+        <v>23</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.63917525773195905</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.57705897368709202</v>
+      </c>
+      <c r="M22" s="45"/>
+      <c r="N22" s="11">
+        <v>4</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="24">
+        <v>114.062523671375</v>
+      </c>
+      <c r="G23" s="15">
+        <f>RANK(F23,$F$2:$F$24,1)</f>
+        <v>8</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.71134020618556704</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="18">
         <v>6.5044783003370901E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="13">
-        <v>77.323899993477099</v>
-      </c>
-      <c r="F22" s="25">
-        <v>125.903788975342</v>
-      </c>
-      <c r="G22" s="14">
-        <f t="shared" si="0"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="11">
+        <v>4</v>
+      </c>
+      <c r="O23" s="12">
+        <v>75.285847544840607</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0.90721649484536104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
         <v>15</v>
       </c>
-      <c r="H22" s="16">
-        <v>0.597938144329897</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2.8208088073158E-2</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0.17260518610648301</v>
-      </c>
-      <c r="K22" s="13">
-        <v>0.15340746904088401</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>3</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="13">
-        <v>146.452127363541</v>
-      </c>
-      <c r="F23" s="25">
-        <v>115.05717835122</v>
-      </c>
-      <c r="G23" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0.67010309278350499</v>
-      </c>
-      <c r="I23" s="18">
-        <v>4.5551879313505001E-4</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0.39535357684292699</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0.214508594690169</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>23</v>
-      </c>
       <c r="B24" s="20">
-        <v>3</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="21">
-        <v>389.828557877376</v>
-      </c>
-      <c r="F24" s="26">
-        <v>120.46602930405599</v>
-      </c>
-      <c r="G24" s="22">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="25">
+        <v>84.384242763733099</v>
+      </c>
+      <c r="G24" s="39">
+        <f>RANK(F24,$F$2:$F$24,1)</f>
+        <v>1</v>
       </c>
       <c r="H24" s="23">
-        <v>0.62886597938144295</v>
-      </c>
-      <c r="I24" s="24">
-        <v>2.2555121971136699E-3</v>
-      </c>
-      <c r="J24" s="21">
-        <v>-0.29250116966994699</v>
-      </c>
-      <c r="K24" s="21">
-        <v>-0.187885961371552</v>
+        <v>0.78350515463917503</v>
+      </c>
+      <c r="I24" s="40">
+        <v>8.9076556479660704E-5</v>
+      </c>
+      <c r="J24" s="23">
+        <v>0.42227411411835902</v>
+      </c>
+      <c r="K24" s="23">
+        <v>0.49451759386431599</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="46"/>
+      <c r="N24" s="20">
+        <v>5</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="E28" s="28"/>
+      <c r="E28" s="27"/>
       <c r="F28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>105</v>
       </c>
@@ -6244,7 +6592,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>106</v>
       </c>
@@ -6255,7 +6603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>107</v>
       </c>
@@ -6266,7 +6614,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>108</v>
       </c>
@@ -6290,12 +6638,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L24">
-    <sortState ref="A2:L23">
-      <sortCondition ref="A1:A23"/>
+  <autoFilter ref="A1:Q1">
+    <sortState ref="A2:Q24">
+      <sortCondition ref="N1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>